--- a/backend/medical_store/test-result.xlsx
+++ b/backend/medical_store/test-result.xlsx
@@ -6,15 +6,18 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Results" r:id="rId3" sheetId="1"/>
+    <sheet name="Results" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Test Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Status</t>
@@ -23,13 +26,40 @@
     <t>Message</t>
   </si>
   <si>
-    <t>testLoginSuccess</t>
+    <t>TC_Auth_Login_01</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công với thông tin hợp lệ</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t/>
+    <t>login Successful</t>
+  </si>
+  <si>
+    <t>TC_Auth_Login_02</t>
+  </si>
+  <si>
+    <t>Đăng nhập với mật khẩu sai</t>
+  </si>
+  <si>
+    <t>authentication exception</t>
+  </si>
+  <si>
+    <t>TC_Auth_Login_03</t>
+  </si>
+  <si>
+    <t>Đăng nhập với dữ liệu bị thiếu</t>
+  </si>
+  <si>
+    <t>TC_Auth_Login_04</t>
+  </si>
+  <si>
+    <t>Đăng nhập với tài khoản bị khóa</t>
+  </si>
+  <si>
+    <t>account locked</t>
   </si>
 </sst>
 </file>
@@ -74,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -90,16 +120,64 @@
       <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/backend/medical_store/test-result.xlsx
+++ b/backend/medical_store/test-result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>Test Name</t>
   </si>
@@ -62,6 +62,39 @@
     <t>account locked</t>
   </si>
   <si>
+    <t>TC_Category_01</t>
+  </si>
+  <si>
+    <t>Tạo danh mục thành công</t>
+  </si>
+  <si>
+    <t>Successfully created a new category</t>
+  </si>
+  <si>
+    <t>TC_Category_02</t>
+  </si>
+  <si>
+    <t>Tạo danh mục nhưng thiếu name</t>
+  </si>
+  <si>
+    <t>invalid request</t>
+  </si>
+  <si>
+    <t>TC_Category_03</t>
+  </si>
+  <si>
+    <t>Tạo danh mục thiếu token hợp lệ</t>
+  </si>
+  <si>
+    <t>TC_Category_04</t>
+  </si>
+  <si>
+    <t>Tạo danh mục đã bị trùng</t>
+  </si>
+  <si>
+    <t>category exitsted</t>
+  </si>
+  <si>
     <t>TC_Manufacture_01</t>
   </si>
   <si>
@@ -114,9 +147,6 @@
   </si>
   <si>
     <t>Đăng kí tài khoản nhưng thiếu dữ liệu</t>
-  </si>
-  <si>
-    <t>invalid request</t>
   </si>
   <si>
     <t>TC_Auth_Register_04</t>
@@ -179,7 +209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -280,21 +310,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -308,35 +338,35 @@
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -364,21 +394,77 @@
         <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="0">
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
         <v>40</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
